--- a/_data/history.xlsx
+++ b/_data/history.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -745,6 +745,18 @@
         <v>987</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>30 July 2022</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>982</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/_data/history.xlsx
+++ b/_data/history.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -751,9 +751,19 @@
           <t>30 July 2022</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>982</t>
+      <c r="B32" t="n">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>31 July 2022</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>996</t>
         </is>
       </c>
     </row>

--- a/_data/history.xlsx
+++ b/_data/history.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -761,9 +761,19 @@
           <t>31 July 2022</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>996</t>
+      <c r="B33" t="n">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>01 August 2022</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>998</t>
         </is>
       </c>
     </row>

--- a/_data/history.xlsx
+++ b/_data/history.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -771,9 +771,19 @@
           <t>01 August 2022</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>998</t>
+      <c r="B34" t="n">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>02 August 2022</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>916</t>
         </is>
       </c>
     </row>

--- a/_data/history.xlsx
+++ b/_data/history.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -781,9 +781,19 @@
           <t>02 August 2022</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>916</t>
+      <c r="B35" t="n">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>03 August 2022</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>947</t>
         </is>
       </c>
     </row>

--- a/_data/history.xlsx
+++ b/_data/history.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -791,9 +791,19 @@
           <t>03 August 2022</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>947</t>
+      <c r="B36" t="n">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>04 August 2022</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>921</t>
         </is>
       </c>
     </row>

--- a/_data/history.xlsx
+++ b/_data/history.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -801,9 +801,19 @@
           <t>04 August 2022</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>921</t>
+      <c r="B37" t="n">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>05 August 2022</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>889</t>
         </is>
       </c>
     </row>

--- a/_data/history.xlsx
+++ b/_data/history.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -811,9 +811,19 @@
           <t>05 August 2022</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>889</t>
+      <c r="B38" t="n">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>06 August 2022</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>882</t>
         </is>
       </c>
     </row>

--- a/_data/history.xlsx
+++ b/_data/history.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -821,9 +821,19 @@
           <t>06 August 2022</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>882</t>
+      <c r="B39" t="n">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>07 August 2022</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>876</t>
         </is>
       </c>
     </row>
